--- a/tests/data/dmn_from_spreadsheet/large_test_spreadsheet.xlsx
+++ b/tests/data/dmn_from_spreadsheet/large_test_spreadsheet.xlsx
@@ -85,58 +85,58 @@
     <t>True</t>
   </si>
   <si>
-    <t>“required”</t>
-  </si>
-  <si>
-    <t>"This workflow is required"</t>
-  </si>
-  <si>
-    <t>“my first annotation”</t>
+    <t>'required'</t>
+  </si>
+  <si>
+    <t>'This workflow is required'</t>
+  </si>
+  <si>
+    <t>'my first annotation'</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t>“disabled”</t>
-  </si>
-  <si>
-    <t>"The Protocol document has not been uploaded in the Protocol, Application and Coversheet workflow."</t>
-  </si>
-  <si>
-    <t>“Second Annotation”</t>
-  </si>
-  <si>
-    <t>"The Responsible Organization has not been set in the Core Info workflow."</t>
-  </si>
-  <si>
-    <t>“Third Annotation”</t>
-  </si>
-  <si>
-    <t>"The Primary Investigator has not been confirmed in the Personnel workflow."</t>
-  </si>
-  <si>
-    <t>“Fourth Annotation”</t>
-  </si>
-  <si>
-    <t>"The Protocol document has not been uploaded in the Protocol, Application and Coversheet workflow and the Responsible Organization has not been set in the Core Info workflow."</t>
-  </si>
-  <si>
-    <t>"The Protocol document has not been uploaded in the Protocol, Application and Coversheet workflow and the Primary Investigator has not been confirmed in the Personnel workflow."</t>
-  </si>
-  <si>
-    <t>“Sixth-is Annotation”</t>
-  </si>
-  <si>
-    <t>"The Primary Investigator has not been confirmed and the Responsible Organization has not been set in the Core Info workflow."</t>
-  </si>
-  <si>
-    <t>"The Protocol document has not been uploaded in the Protocol, Application and Coversheet workflow and the Primary Investigator has not been confirmed and the Responsible Organization has not been set in the Core Info workflow."</t>
-  </si>
-  <si>
-    <t>"Something is wrong, contact Support"</t>
-  </si>
-  <si>
-    <t>“Last (ninth) Annotation”</t>
+    <t>'disabled'</t>
+  </si>
+  <si>
+    <t>'The Protocol document has not been uploaded in the Protocol, Application and Coversheet workflow.'</t>
+  </si>
+  <si>
+    <t>'Second Annotation'</t>
+  </si>
+  <si>
+    <t>'The Responsible Organization has not been set in the Core Info workflow.'</t>
+  </si>
+  <si>
+    <t>'Third Annotation'</t>
+  </si>
+  <si>
+    <t>'The Primary Investigator has not been confirmed in the Personnel workflow.'</t>
+  </si>
+  <si>
+    <t>'Fourth Annotation'</t>
+  </si>
+  <si>
+    <t>'The Protocol document has not been uploaded in the Protocol, Application and Coversheet workflow and the Responsible Organization has not been set in the Core Info workflow.'</t>
+  </si>
+  <si>
+    <t>'The Protocol document has not been uploaded in the Protocol, Application and Coversheet workflow and the Primary Investigator has not been confirmed in the Personnel workflow.'</t>
+  </si>
+  <si>
+    <t>'Sixth-is Annotation'</t>
+  </si>
+  <si>
+    <t>'The Primary Investigator has not been confirmed and the Responsible Organization has not been set in the Core Info workflow.'</t>
+  </si>
+  <si>
+    <t>'The Protocol document has not been uploaded in the Protocol, Application and Coversheet workflow and the Primary Investigator has not been confirmed and the Responsible Organization has not been set in the Core Info workflow.'</t>
+  </si>
+  <si>
+    <t>'Something is wrong, contact Support'</t>
+  </si>
+  <si>
+    <t>'Last (ninth) Annotation'</t>
   </si>
 </sst>
 </file>
@@ -163,12 +163,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -181,16 +187,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -207,22 +213,22 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -242,6 +248,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -393,9 +400,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -475,7 +482,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -503,10 +510,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -762,9 +769,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1052,7 +1059,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1080,10 +1087,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1341,9 +1348,9 @@
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="22.1719" style="1" customWidth="1"/>
-    <col min="2" max="5" width="12.0391" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.9922" style="1" customWidth="1"/>
-    <col min="7" max="7" width="60.1641" style="1" customWidth="1"/>
+    <col min="2" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="60.1719" style="1" customWidth="1"/>
     <col min="8" max="12" width="10.8516" style="1" customWidth="1"/>
     <col min="13" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
